--- a/biology/Botanique/Calla_(genre)/Calla_(genre).xlsx
+++ b/biology/Botanique/Calla_(genre)/Calla_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calla est un genre de plantes herbacées pérennes aquatiques de la famille des Araceae. Ce genre ne doit pas être confondu avec les callas (ancienne dénomination du genre Zantedeschia).
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante herbacée de milieux humides à rhizomes horizontaux. Les nombreuses feuilles apparaissent généralement avant les fleurs. Elles sont pétiolées et disposées le long du rhizome ou rassemblées en rosette terminale. Le pétiole est 1,5 à 2 fois aussi long que le limbe. Les feuilles sont vertes, simples, non peltées, de forme ovale à arrondie. La base de la feuille est parfois cordée. L'apex de la feuille est courtement acuminé. Les nervures sont parallèles[1].
-L'inflorescence est portée sur un pédoncule aussi long que les pétioles des feuilles. Elle se compose d'une spathe blanche à base souvent verdâtre. La spathe n'englobe pas le spadice (comme c'est le cas chez l'arisème petit-prêcheur). Le spadice cylindrique, plus court que la spathe, est composé de fleurs bisexuées apérianthées. Parfois, les fleurs supérieures sont staminées seulement[2]. Le fruit est rouge et contient entre 4 et 9 semences (jusqu'à 11) enrobées de mucilage[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée de milieux humides à rhizomes horizontaux. Les nombreuses feuilles apparaissent généralement avant les fleurs. Elles sont pétiolées et disposées le long du rhizome ou rassemblées en rosette terminale. Le pétiole est 1,5 à 2 fois aussi long que le limbe. Les feuilles sont vertes, simples, non peltées, de forme ovale à arrondie. La base de la feuille est parfois cordée. L'apex de la feuille est courtement acuminé. Les nervures sont parallèles.
+L'inflorescence est portée sur un pédoncule aussi long que les pétioles des feuilles. Elle se compose d'une spathe blanche à base souvent verdâtre. La spathe n'englobe pas le spadice (comme c'est le cas chez l'arisème petit-prêcheur). Le spadice cylindrique, plus court que la spathe, est composé de fleurs bisexuées apérianthées. Parfois, les fleurs supérieures sont staminées seulement. Le fruit est rouge et contient entre 4 et 9 semences (jusqu'à 11) enrobées de mucilage.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre Calla ne contient qu'une seule espèce à distribution circumboréale.
 Calla palustris L. - Calla des marais</t>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les callas affectionnent les zones marécageuses, les marais et les tourbières[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les callas affectionnent les zones marécageuses, les marais et les tourbières.
 Le genre présent dans tout le Québec et on le rencontre aussi en France.
 </t>
         </is>
@@ -606,9 +624,11 @@
           <t>Aspects culturels et historiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot Calla serait tiré du grec kalos, qui veut dire beau[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot Calla serait tiré du grec kalos, qui veut dire beau.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Espèce</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (21 juin 2022)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (21 juin 2022) :
 Calla aethiopica Gaertn.
 Calla occulta G. Lodd., (1817)
 Calla ovatofolia Gilib., (1792)
